--- a/analysis_result2.xlsx
+++ b/analysis_result2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="47">
   <si>
     <t>control_all</t>
   </si>
@@ -116,13 +116,52 @@
   </si>
   <si>
     <t>F 0.02,0.2,0.1</t>
+  </si>
+  <si>
+    <t>F(even) means other than even channels, all tests came out false</t>
+  </si>
+  <si>
+    <t>Even channels start from channel0</t>
+  </si>
+  <si>
+    <t>F(Even,8910)</t>
+  </si>
+  <si>
+    <t>F(8910)</t>
+  </si>
+  <si>
+    <t>F(even,8910,1112)</t>
+  </si>
+  <si>
+    <t>F(even,567,8910,1112)</t>
+  </si>
+  <si>
+    <t>F(Even,8910,1112)</t>
+  </si>
+  <si>
+    <t>F(even,8910)</t>
+  </si>
+  <si>
+    <t>F(11,567)</t>
+  </si>
+  <si>
+    <t>F(13,15,567)</t>
+  </si>
+  <si>
+    <t>F(567)</t>
+  </si>
+  <si>
+    <t>Conclusions:</t>
+  </si>
+  <si>
+    <t>1. Even channels can tell dictinction between athelets and pros, in both two tailed t mean test and anova tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +169,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,13 +199,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,22 +511,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1141,57 +1198,57 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>6.4346899999999998</v>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1200,59 +1257,95 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>6.1369499999999997</v>
+        <v>5.5998799999999997</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>6.3647600000000004</v>
+        <v>5.5849500000000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1264,21 +1357,39 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>3.3973599999999999</v>
+        <v>5.2313099999999997</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1290,553 +1401,1008 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>6.53104</v>
+        <v>5.577</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>5.9243600000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>5.8127599999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>5.7498899999999997</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
         <v>6.1947799999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <v>6.3548099999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>5.8360200000000004</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>6.7201899999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>6.2050900000000002</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>6.4213399999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>6.8341000000000003</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1234</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22">
         <v>6.6223400000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1534</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>4.8806399999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>4.3817899999999996</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1235</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23">
-        <v>6.2577100000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>4.88375</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1245</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24">
-        <v>6.3953699999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>6.7507200000000003</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>1324</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>5.3339699999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>4.7720700000000003</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1325</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="H26">
-        <v>6.5051500000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="H27">
+        <v>5.1711900000000002</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>1345</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27">
-        <v>6.4495399999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>4.7031499999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1423</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28">
-        <v>6.7118200000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>6.2297700000000003</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>1425</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29">
-        <v>7.0865549999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>5.79148</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>1435</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30">
-        <v>6.2869400000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>5.4109800000000003</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>1523</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>4.5663600000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>4.3749900000000004</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1524</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
         <v>4.8902599999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1534</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>4.8806399999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>4.3817899999999996</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2345</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34">
-        <v>6.9335100000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>6.7920999999999996</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2435</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>4.9343199999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>5.4920499999999999</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2534</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>22</v>
       </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36">
-        <v>6.9745400000000002</v>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>6.5422500000000001</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_result2.xlsx
+++ b/analysis_result2.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoliu/workspace/athelets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="51">
   <si>
     <t>control_all</t>
   </si>
@@ -155,6 +165,18 @@
   </si>
   <si>
     <t>1. Even channels can tell dictinction between athelets and pros, in both two tailed t mean test and anova tests</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>easy1, easy2, hard1, hard2, easy3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. For 2 channel clusterings, 1245 makes the most sense. </t>
+  </si>
+  <si>
+    <t>1245 means 1-2 vs 4-5</t>
   </si>
 </sst>
 </file>
@@ -177,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,9 +231,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -270,9 +299,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,9 +334,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -511,32 +540,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>12</v>
       </c>
@@ -616,7 +645,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -699,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -782,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -865,7 +894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -948,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1114,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1197,152 +1226,77 @@
         <v>6.9745400000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>5.5998799999999997</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>5.5849500000000001</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1357,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>5.2313099999999997</v>
+        <v>5.5998799999999997</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
@@ -1366,7 +1320,7 @@
         <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
         <v>7</v>
@@ -1378,39 +1332,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>5.577</v>
+        <v>5.5849500000000001</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
         <v>7</v>
@@ -1422,18 +1376,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1445,16 +1399,16 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>5.9243600000000001</v>
+        <v>5.2313099999999997</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
         <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
         <v>7</v>
@@ -1466,77 +1420,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>5.7498899999999997</v>
+        <v>5.577</v>
       </c>
       <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>5.9243600000000001</v>
+      </c>
+      <c r="I18" t="s">
         <v>40</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <v>6.1947799999999997</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
@@ -1554,30 +1508,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>5.8360200000000004</v>
+        <v>5.7498899999999997</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
@@ -1598,30 +1552,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>6.2050900000000002</v>
+        <v>6.1947799999999997</v>
       </c>
       <c r="I20" t="s">
         <v>36</v>
@@ -1630,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
         <v>7</v>
@@ -1642,18 +1596,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -1665,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>6.8341000000000003</v>
+        <v>5.8360200000000004</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s">
         <v>37</v>
@@ -1686,723 +1640,811 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>6.2050900000000002</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>6.8341000000000003</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1234</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24">
         <v>6.6223400000000003</v>
       </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
         <v>42</v>
       </c>
-      <c r="L22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1534</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
         <v>4.3817899999999996</v>
       </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>1235</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
         <v>4.88375</v>
       </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>1245</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25">
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2">
         <v>6.7507200000000003</v>
       </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="L27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>1324</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
         <v>4.7720700000000003</v>
       </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>1325</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="H27">
+      <c r="H29">
         <v>5.1711900000000002</v>
       </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
         <v>43</v>
       </c>
-      <c r="K27" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="K29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>1345</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28">
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
         <v>4.7031499999999999</v>
       </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>1423</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
         <v>6.2297700000000003</v>
       </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>1425</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32">
         <v>5.79148</v>
       </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>1435</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33">
         <v>5.4109800000000003</v>
       </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>1523</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
         <v>4.3749900000000004</v>
       </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>1524</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35">
         <v>4.8902599999999996</v>
       </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>1534</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
         <v>4.3817899999999996</v>
       </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2345</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35">
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37">
         <v>6.7920999999999996</v>
       </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" t="s">
         <v>44</v>
       </c>
-      <c r="L35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2435</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
         <v>5.4920499999999999</v>
       </c>
-      <c r="I36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2534</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
         <v>22</v>
       </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39">
         <v>6.5422500000000001</v>
       </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2</v>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_result2.xlsx
+++ b/analysis_result2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="54">
   <si>
     <t>control_all</t>
   </si>
@@ -177,6 +178,15 @@
   </si>
   <si>
     <t>1245 means 1-2 vs 4-5</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Controls</t>
   </si>
 </sst>
 </file>
@@ -251,6 +261,1209 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pros vs controls</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8910.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1112.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.232536059014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.246920136623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.331734852389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40674774012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.435721712377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.411211478598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.328935365664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.421762403821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.461566789945</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.494818886174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.445844066017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.421372630068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.455318387239</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.491011132477</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.508108184096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.481659251815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.387303082694</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.467409914045</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.438345508653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Controls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8910.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1112.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.00551883015205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.439583259915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00454444182376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.442776759203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00492626313364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.441520508309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00503287116544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.441941160067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0064618781058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.441795052118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00442218142089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.442202366728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00568978858335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.441602017865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00562045505336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.442408909729</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.296164846514</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.150893037215</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.223946077656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2074228528"/>
+        <c:axId val="-2079294944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2074228528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2079294944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2079294944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074228528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,7 +1756,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2450,4 +3663,240 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.23253605901400001</v>
+      </c>
+      <c r="C2">
+        <v>5.5188301520499999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.246920136623</v>
+      </c>
+      <c r="C3">
+        <v>0.43958325991500002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.33173485238900002</v>
+      </c>
+      <c r="C4">
+        <v>4.5444418237600001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.40674774011999998</v>
+      </c>
+      <c r="C5">
+        <v>0.44277675920300003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.43572171237700003</v>
+      </c>
+      <c r="C6">
+        <v>4.9262631336400003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.411211478598</v>
+      </c>
+      <c r="C7">
+        <v>0.44152050830900003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.328935365664</v>
+      </c>
+      <c r="C8">
+        <v>5.0328711654399998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.421762403821</v>
+      </c>
+      <c r="C9">
+        <v>0.44194116006700002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.461566789945</v>
+      </c>
+      <c r="C10">
+        <v>6.4618781057999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.49481888617399999</v>
+      </c>
+      <c r="C11">
+        <v>0.44179505211800002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.445844066017</v>
+      </c>
+      <c r="C12">
+        <v>4.4221814208899998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.42137263006800002</v>
+      </c>
+      <c r="C13">
+        <v>0.44220236672800001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.45531838723899998</v>
+      </c>
+      <c r="C14">
+        <v>5.6897885833499997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.49101113247700001</v>
+      </c>
+      <c r="C15">
+        <v>0.44160201786499997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.508108184096</v>
+      </c>
+      <c r="C16">
+        <v>5.6204550533600003E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.48165925181500002</v>
+      </c>
+      <c r="C17">
+        <v>0.44240890972899999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>567</v>
+      </c>
+      <c r="B18">
+        <v>0.38730308269399999</v>
+      </c>
+      <c r="C18">
+        <v>0.29616484651399999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8910</v>
+      </c>
+      <c r="B19">
+        <v>0.46740991404499999</v>
+      </c>
+      <c r="C19">
+        <v>0.150893037215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1112</v>
+      </c>
+      <c r="B20">
+        <v>0.43834550865299998</v>
+      </c>
+      <c r="C20">
+        <v>0.223946077656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/analysis_result2.xlsx
+++ b/analysis_result2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26505"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="56">
   <si>
     <t>control_all</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Athletes</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
 </sst>
 </file>
@@ -241,10 +247,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -431,7 +438,7 @@
             <c:numRef>
               <c:f>Sheet2!$B$2:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.232536059014</c:v>
@@ -588,7 +595,7 @@
             <c:numRef>
               <c:f>Sheet2!$C$2:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.00551883015205</c:v>
@@ -660,11 +667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2146903536"/>
-        <c:axId val="2146893328"/>
+        <c:axId val="-2076297632"/>
+        <c:axId val="-2076433712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146903536"/>
+        <c:axId val="-2076297632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146893328"/>
+        <c:crossAx val="-2076433712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -715,7 +722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146893328"/>
+        <c:axId val="-2076433712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +798,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -822,7 +829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146903536"/>
+        <c:crossAx val="-2076297632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -912,7 +919,462 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Athletes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs controls</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Athletes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Controls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.414122504306789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22352898446091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2024526000"/>
+        <c:axId val="-2073843440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2024526000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2073843440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073843440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pearson's r</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2024526000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1455,20 +1917,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1482,6 +2447,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3691,22 +4686,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3714,10 +4712,10 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0.23253605901400001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>5.5188301520499999E-3</v>
       </c>
     </row>
@@ -3725,10 +4723,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.246920136623</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.43958325991500002</v>
       </c>
     </row>
@@ -3736,10 +4734,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0.33173485238900002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>4.5444418237600001E-3</v>
       </c>
     </row>
@@ -3747,10 +4745,10 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>0.40674774011999998</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.44277675920300003</v>
       </c>
     </row>
@@ -3758,10 +4756,10 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0.43572171237700003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>4.9262631336400003E-3</v>
       </c>
     </row>
@@ -3769,10 +4767,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>0.411211478598</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.44152050830900003</v>
       </c>
     </row>
@@ -3780,10 +4778,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.328935365664</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>5.0328711654399998E-3</v>
       </c>
     </row>
@@ -3791,10 +4789,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>0.421762403821</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.44194116006700002</v>
       </c>
     </row>
@@ -3802,10 +4800,10 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.461566789945</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>6.4618781057999997E-3</v>
       </c>
     </row>
@@ -3813,10 +4811,10 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>0.49481888617399999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.44179505211800002</v>
       </c>
     </row>
@@ -3824,10 +4822,10 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.445844066017</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>4.4221814208899998E-3</v>
       </c>
     </row>
@@ -3835,10 +4833,10 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.42137263006800002</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.44220236672800001</v>
       </c>
     </row>
@@ -3846,10 +4844,10 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>0.45531838723899998</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>5.6897885833499997E-3</v>
       </c>
     </row>
@@ -3857,10 +4855,10 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>0.49101113247700001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.44160201786499997</v>
       </c>
     </row>
@@ -3868,10 +4866,10 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>0.508108184096</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>5.6204550533600003E-3</v>
       </c>
     </row>
@@ -3879,10 +4877,10 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>0.48165925181500002</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.44240890972899999</v>
       </c>
     </row>
@@ -3890,10 +4888,10 @@
       <c r="A18">
         <v>567</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>0.38730308269399999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>0.29616484651399999</v>
       </c>
     </row>
@@ -3901,10 +4899,10 @@
       <c r="A19">
         <v>8910</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>0.46740991404499999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>0.150893037215</v>
       </c>
     </row>
@@ -3912,11 +4910,37 @@
       <c r="A20">
         <v>1112</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>0.43834550865299998</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>0.223946077656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3">
+        <f>AVERAGE(B2:B20)</f>
+        <v>0.41412250430678943</v>
+      </c>
+      <c r="C22" s="3">
+        <f>AVERAGE(C2:C20)</f>
+        <v>0.22352898446090999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3">
+        <f>AVERAGE(B2,B4,B6,B8,B10,B12,B14,B16,B19,B20)</f>
+        <v>0.41055208394390003</v>
+      </c>
+      <c r="C23" s="3">
+        <f>AVERAGE(C2,C4,C6,C8,C10,C12,C14,C16,C19,C20)</f>
+        <v>4.1705582430928999E-2</v>
       </c>
     </row>
   </sheetData>
